--- a/Data/Delphi round 1/response sheets/Peter Lo - give your expert opinion on woodland condition1113.xlsx
+++ b/Data/Delphi round 1/response sheets/Peter Lo - give your expert opinion on woodland condition1113.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Delphi round 1/response sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="674" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA2BCBBF-83ED-421A-AB96-FF54CD105EBD}"/>
+  <xr:revisionPtr revIDLastSave="678" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BCA652B-660D-4FC3-90D9-86B960D65587}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="16440" windowHeight="28320" firstSheet="14" activeTab="14" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -292,6 +292,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2: Enter values in the table below to describe that </t>
     </r>
@@ -301,6 +302,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>typical</t>
     </r>
@@ -309,6 +311,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> relationship</t>
     </r>
@@ -969,12 +972,14 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4955,7 +4960,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5321,16 +5326,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100</c:v>
@@ -18667,10 +18672,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3F61B2D8-13DD-46D6-B6D8-5975AEDB6276}" name="Table156817" displayName="Table156817" ref="A9:B17" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A9:B17" xr:uid="{AB04B7AD-16D4-48B1-9771-A4B9EAE35B9B}"/>
@@ -22370,8 +22371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3248C487-FA81-4908-B7DC-7E550BAD9141}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C49:C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23130,8 +23131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE01BF-891C-4D98-B138-661CC22AFA79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23663,8 +23664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E3BDB2-4936-4583-A0D1-731A826C7FE6}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23743,7 +23744,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>10</v>
@@ -23768,7 +23769,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -23805,7 +23806,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -26701,6 +26702,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Peter Lowe</DisplayName>
+        <AccountId>61</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43bc291949bcf5a898aed47fdf38e56c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a89575b99fa510669e25d545522f68e" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -26891,35 +26920,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Peter Lowe</DisplayName>
-        <AccountId>61</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26936,22 +26955,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>